--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>44679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45644.42954861111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45860.61114583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44293</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45720.62849537037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44421</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44479</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45714.45943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44285</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45932</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45555.53145833333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45972.4255324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44679</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45943.30185185185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45756.55734953703</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>46055.61385416667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45163</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45621.71255787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45664.56525462963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44405.38357638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44679</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44745</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>45216</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>45816.7908912037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45398</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>45712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45941</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>45804.64479166667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>45068</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>44487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>45727.44623842592</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>45774.7449537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45774.74971064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>46043.71958333333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45176</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>45177</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>45621.7202662037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45782.35407407407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44405.37199074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44278</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44679</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>44848</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44537</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45665.88498842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44938</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>45191.74868055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45786.78096064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>45812.72518518518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45541.59120370371</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>45915.44128472222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45917.71873842592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45243</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>45757.43452546297</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44597</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45932</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>45932</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45932</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45932</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>45293</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45554.7571875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45153</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45745.45288194445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45601.47166666666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>44298.96792824074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>45973.73625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45554.724375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45236</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45989.58512731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>45294</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45994</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>46058.49090277778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44949</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44308</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>45217</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>45166</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45266.73542824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44949</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45774.74846064814</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44496</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45176</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>44411.46893518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44411</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44478</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44238</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44523</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44420</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44237</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44488</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44764.75119212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44510</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44420</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44855</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>44573</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>44846</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>44411</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>44294</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>44853.62758101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>44782.48431712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>44405</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44776</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44434</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44466</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44419</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44679</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44679</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>44777</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44256</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44393</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44455.59368055555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44753</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44350</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44347.39319444444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44382.29873842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44350</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44293.54331018519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44510</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44442</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44487</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44487</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44467</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>44469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44342</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44405</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44823</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44515</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44449</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44767</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44487</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44356</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44776.43607638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44253</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>44692.5827662037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44882</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44803</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>44588</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44446.44587962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>44743.39017361111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44277.45946759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44308.73248842593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44574</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44571</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44393</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44405.3794212963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44841</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44537</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44809</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44884</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44884.59502314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44628</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44319</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44515</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44525</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44525.62849537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44627</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44785</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44720.78243055556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44595</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44743.53200231482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44378</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44309.38962962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44378</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44638</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44848</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44382.29295138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44776.49267361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44498.63189814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44826</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44791</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44498.62533564815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44638</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44498.6764699074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44371.45949074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44812</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44796</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44855</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44794.57594907407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45274.66761574074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45448.46712962963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44945.79784722222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>45728.64946759259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>45477.43600694444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45268.5847337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45435.65314814815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45219</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>45457.59011574074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45294</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44767</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45140</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45089</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44897.58119212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44939</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45448.46574074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45182.38091435185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45238</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45225.27888888889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>45225.27950231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45704.41174768518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>45142</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45225</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>45623.61754629629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>45774.74288194445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>45774.74611111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>45275</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>45133.94640046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>45316.34875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45545.65766203704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44460</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44498.63928240741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44498.66814814815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44909.47087962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44909.47482638889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44930</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45030.5583912037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44903.64769675926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>45161.37310185185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>45309</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>45111.58732638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>45729.8487037037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>45153</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>45160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>45573.49461805556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>45141</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44445</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>45755.66143518518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44420.49575231481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45624.56611111111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45111.58931712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45294.73603009259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45804.66534722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45572.68226851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45491.69811342593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44894</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45804.65851851852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>44945.79784722222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45889.68641203704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45812.4794212963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45463.58699074074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45888</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44546.45023148148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45678.54631944445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44424.61851851852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45735.53318287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45894.62824074074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>45750.62740740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>45817.52960648148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>45816.80521990741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>45816.81532407407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>44442</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44343</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45818.4428125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44683</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45818.4477662037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45274.66712962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45146</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45819.35346064815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45819.34208333334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44888</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>45818.45112268518</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45901.53839120371</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>45275.35924768518</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45902.42209490741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44487</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>45821.4375462963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45316.35028935185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45824</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45905</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45905</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45824.6219212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45623.61640046296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45623</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45905</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44949</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45456.67717592593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45824.6057175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45825.41101851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45827</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45915.59864583334</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44558</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45912.47329861111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45912.47711805555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45912.4715625</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45917.7152662037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45917.72821759259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>44743.53112268518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45230</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22102,7 +22102,7 @@
         <v>45919</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45492</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44865</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>45922.85089120371</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45729</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>45923.56998842592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>45923.5819675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>45359</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45925.6012962963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44830</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45833.6840162037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45833.68815972222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45147</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45925.60758101852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45925.51773148148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44600</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45202</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45928.69971064815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45729</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45021.41194444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45930.40612268518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45931.46402777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45930.52037037037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45547.66443287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45604.6397337963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45281</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44783.43192129629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>45932</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45932</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44928.80907407407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44933</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>45932</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44965.61106481482</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44768</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44909.47282407407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44862</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44889.59107638889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45203</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45938</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44665</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44860.31635416667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45938</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45938</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>45938</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>45938</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>45938</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45938</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44354.65108796296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45938</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>45938</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>45938</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>45938</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45271</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45842.65444444444</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45614</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45655.79679398148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45941</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44933</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44942</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45293</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>45195.4384375</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>45111.75905092592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>45555.57263888889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>45945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>45775</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>45082.58068287037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>45082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45590.59991898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>45244</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45121</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45804.67081018518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45852.90648148148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>45204.62655092592</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45852.93737268518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45852.9413425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45852.91939814815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44412</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45950</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44931</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45860.59876157407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45860.54739583333</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45860.56385416666</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45860</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45678.56328703704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44623.6377199074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45952.69527777778</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>45489.46947916667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45489</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45106.46225694445</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45106.46359953703</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44369</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45957.37747685185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45296.51877314815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45069.39050925926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45957.44152777778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45957.44295138889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44501</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45392</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45555.47070601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>45957.38039351852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45957.44837962963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45644.6893287037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44944</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45579.69619212963</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28931,7 +28931,7 @@
         <v>45875.37489583333</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45244</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45261.48429398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45461</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45237</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>45140</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44803</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45965.34915509259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45965.34706018519</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>45086</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>45965.35090277778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44987.5969212963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44459</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45804.44505787037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45882.39939814815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44565</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45968.35410879629</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45968.41912037037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>44690</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45968.37731481482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45968.48194444444</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44768</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44888</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45973.73924768518</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45973.72855324074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44986.52277777778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44498.60736111111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44342</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44509</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>45887.71827546296</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44475</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45977.50608796296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44967</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45177</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45116</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45146</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45153.68471064815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45230.59686342593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45306.82501157407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>44862</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45470</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44308</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44911.41037037037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45986.8768287037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>45187</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45448.46924768519</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31680,7 +31680,7 @@
         <v>45448.47233796296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>45967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31799,7 +31799,7 @@
         <v>44930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>45720.62863425926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44994.36689814815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>45044</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45988.60721064815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32094,7 +32094,7 @@
         <v>45300</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32156,7 +32156,7 @@
         <v>46030.41200231481</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32213,7 +32213,7 @@
         <v>46030.41974537037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>46030.43818287037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44475.61988425926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>46030.53461805556</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32446,7 +32446,7 @@
         <v>46031.40233796297</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>45989.58321759259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>45392.60278935185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>45655.82</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>46030.41450231482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>45086.42326388889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>46030.40644675926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>44483.56151620371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45604</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32969,7 +32969,7 @@
         <v>45755.92731481481</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>46030.53052083333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33088,7 +33088,7 @@
         <v>45993.71726851852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33145,7 +33145,7 @@
         <v>45755.69678240741</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>45755.70814814815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33259,7 +33259,7 @@
         <v>45117</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>46035.73590277778</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33373,7 +33373,7 @@
         <v>46035.74182870371</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>45374</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44498.60736111111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33544,7 +33544,7 @@
         <v>45994.68326388889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>45994.64373842593</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>45337.5977662037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>45294</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>45607.60791666667</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>45625</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44993.24648148148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44508.4396412037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45741</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>46038.73855324074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45320.54717592592</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45266.73844907407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45695.36659722222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45231</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44949</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>46038.73675925926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>46038.74182870371</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>44882.57453703704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44882.57643518518</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>45996.6052662037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>46038.74047453704</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45999</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>45268</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45005.58341435185</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>45092.70390046296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>46000.63111111111</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>44293</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>46001.57554398148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>46045.65662037037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35289,7 +35289,7 @@
         <v>46003.46635416667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>45275</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>45275</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         <v>45275</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>46002.43575231481</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>46002.43697916667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>45411.46809027778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         <v>46049.56158564815</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35755,7 +35755,7 @@
         <v>45327.52847222222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>45774.75024305555</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>44658</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35926,7 +35926,7 @@
         <v>46030.50560185185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>45217</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36040,7 +36040,7 @@
         <v>46007.60548611111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36097,7 +36097,7 @@
         <v>45737.31425925926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36154,7 +36154,7 @@
         <v>45737.32219907407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>45774.74667824074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>45755.72622685185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>44873</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>45096</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>46050.70089120371</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>45071</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>46008.63266203704</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>46008.46769675926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45741</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44775.39832175926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>46010.35003472222</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>45655.81140046296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>45037.55094907407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>46055.32596064815</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37029,7 +37029,7 @@
         <v>45271</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37086,7 +37086,7 @@
         <v>45177</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         <v>44454</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37200,7 +37200,7 @@
         <v>46055.63732638889</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37257,7 +37257,7 @@
         <v>46010.34716435185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>45161.55373842592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45576.64189814815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44958</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44936</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44638.21601851852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45453</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>45293</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         <v>44599.53623842593</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44776.48541666667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>46057</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>45245</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45737.31590277778</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45737.32273148148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45308</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>45120</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>45601.53907407408</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>44608</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45475.63047453704</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>44824</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45604.61431712963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44413</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44413</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>45268.59717592593</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>45106.46465277778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>45090</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44937</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>45111</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>45442.63368055555</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44994.48125</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44945.8092824074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>45596</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44431.45556712963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44945</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45077</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45579.75803240741</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44469</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>44966.52603009259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45147</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45579.90508101852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45412.70567129629</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45155</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45231.39583333334</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45230</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45244</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>45244</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>45231.40012731482</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40100,7 +40100,7 @@
         <v>44509</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>45341</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44945</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44302</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>45483</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>45229.81049768518</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44740</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>45082</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40561,7 +40561,7 @@
         <v>45655.80457175926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40618,7 +40618,7 @@
         <v>44988.70084490741</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>45568</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>45568</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44930</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>45485.6846412037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>45579.7454050926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>45748.55282407408</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>45748.56105324074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>45492</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>45230</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44475</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44986.54665509259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44953</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>45379</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>45092.70306712963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>45142</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>45300.3408912037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44509</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44881</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45152.45078703704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45209.38177083333</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>44858</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45275</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>45460.46664351852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45638.66378472222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>45639.31511574074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>45639</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42177,7 +42177,7 @@
         <v>45427.39541666667</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42234,7 +42234,7 @@
         <v>44628</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42291,7 +42291,7 @@
         <v>44986.55711805556</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         <v>44944.35847222222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>45655.83563657408</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>45655.84232638889</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>45597.57811342592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44950.64782407408</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>45219</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44994</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>45555.32940972222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>45294</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44350.67715277777</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45703.67853009259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>45205</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44641</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45655.81387731482</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44767</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>44909.47206018519</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>44909.4740625</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45230</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44588</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45265</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45294.72739583333</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45429</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45299.67736111111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45491.69741898148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45274.94810185185</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45266.54534722222</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45268.58987268519</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45300.34408564815</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>45342</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45364</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45275</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45275</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>45275</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
         <v>45153.5702662037</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45397.42005787037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45404.48288194444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>44810</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45491.68972222223</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45491.69962962963</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44812</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>44794.57074074074</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44839,7 +44839,7 @@
         <v>44643</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>45299.66028935185</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44953,7 +44953,7 @@
         <v>45049</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45010,7 +45010,7 @@
         <v>45048.54754629629</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45067,7 +45067,7 @@
         <v>45105</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45774.74922453704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45448.4634375</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>45727.41893518518</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45305,7 +45305,7 @@
         <v>44859</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>45712</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45275.64769675926</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45671.57730324074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45779.39417824074</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45779.37586805555</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45785</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45359.55474537037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45342</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45573.50582175926</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>45786.46930555555</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45664.56349537037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>45369.6190162037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>45546.64825231482</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>45246.78474537037</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>45483</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>45791.37481481482</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46284,7 +46284,7 @@
         <v>45793.47493055555</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         <v>45593.52091435185</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46398,7 +46398,7 @@
         <v>45737.64784722222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt LINKÖPING.xlsx
+++ b/Översikt LINKÖPING.xlsx
@@ -575,7 +575,7 @@
         <v>45756</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         <v>44679</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -800,7 +800,7 @@
         <v>45644.42954861111</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
         <v>45355</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45860.61114583333</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
         <v>44293</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>45720.62849537037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44421</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
         <v>44479</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>45714.45943287037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1575,7 +1575,7 @@
         <v>44285</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45932</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45555.53145833333</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1858,7 +1858,7 @@
         <v>45972.4255324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>44679</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         <v>45943.30185185185</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         <v>45756.55734953703</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         <v>46055.61385416667</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>45163</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         <v>45621.71255787037</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2491,7 +2491,7 @@
         <v>45664.56525462963</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44405.38357638889</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2664,7 +2664,7 @@
         <v>44679</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2755,7 +2755,7 @@
         <v>44745</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         <v>45216</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
         <v>45816.7908912037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45398</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>45712</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45941</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         <v>44487</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>45804.64479166667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3466,7 +3466,7 @@
         <v>45068</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         <v>45595</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
         <v>44487</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>45727.44623842592</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>45774.7449537037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3910,7 +3910,7 @@
         <v>45774.74971064815</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>46043.71958333333</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         <v>45176</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>45177</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4263,7 +4263,7 @@
         <v>45621.7202662037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45782.35407407407</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4435,7 +4435,7 @@
         <v>44405.37199074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4524,7 +4524,7 @@
         <v>44278</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
         <v>44679</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4699,7 +4699,7 @@
         <v>44431</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4784,7 +4784,7 @@
         <v>44848</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44479</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>44537</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5049,7 +5049,7 @@
         <v>45665.88498842593</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44938</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>44930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>45191.74868055555</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         <v>44909</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         <v>45786.78096064815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5574,7 +5574,7 @@
         <v>45812.72518518518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45541.59120370371</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5744,7 +5744,7 @@
         <v>45915.44128472222</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5834,7 +5834,7 @@
         <v>45917.71873842592</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5919,7 +5919,7 @@
         <v>45243</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>45757.43452546297</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44597</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6179,7 +6179,7 @@
         <v>45932</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>45932</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6363,7 +6363,7 @@
         <v>45932</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
         <v>45932</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6543,7 +6543,7 @@
         <v>45293</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>45554.7571875</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6718,7 +6718,7 @@
         <v>45941</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>45153</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>45745.45288194445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>45140</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7071,7 +7071,7 @@
         <v>45601.47166666666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7161,7 +7161,7 @@
         <v>44298.96792824074</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7246,7 +7246,7 @@
         <v>45973.73625</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>45554.724375</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
         <v>45236</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45989.58512731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7680,7 +7680,7 @@
         <v>45294</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45994</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7850,7 +7850,7 @@
         <v>46058.49090277778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7935,7 +7935,7 @@
         <v>44949</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8020,7 +8020,7 @@
         <v>44308</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8105,7 +8105,7 @@
         <v>45217</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8195,7 +8195,7 @@
         <v>45166</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         <v>45148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8369,7 +8369,7 @@
         <v>45266.73542824074</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>44949</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>45774.74846064814</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8624,7 +8624,7 @@
         <v>44496</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
         <v>45176</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8799,7 +8799,7 @@
         <v>44411.46893518518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
         <v>44411</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44478</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44238</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>44523</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9089,7 +9089,7 @@
         <v>44608</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9146,7 +9146,7 @@
         <v>44420</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
         <v>44237</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         <v>44488</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>44764.75119212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>44510</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>44420</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>44855</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         <v>44573</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         <v>44846</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         <v>44496</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         <v>44411</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         <v>44564</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         <v>44294</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         <v>44853.62758101852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         <v>44782.48431712963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>44405</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>44405</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         <v>44776</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         <v>44434</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         <v>44466</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>44419</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         <v>44679</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -10415,7 +10415,7 @@
         <v>44679</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -10477,7 +10477,7 @@
         <v>44777</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>44378</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10591,7 +10591,7 @@
         <v>44256</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>44393</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>44455.59368055555</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10772,7 +10772,7 @@
         <v>44753</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>44350</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
         <v>44445</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10958,7 +10958,7 @@
         <v>44347.39319444444</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -11015,7 +11015,7 @@
         <v>44382.29873842592</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -11072,7 +11072,7 @@
         <v>44350</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -11129,7 +11129,7 @@
         <v>44293.54331018519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -11191,7 +11191,7 @@
         <v>44510</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -11248,7 +11248,7 @@
         <v>44442</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
         <v>44487</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -11367,7 +11367,7 @@
         <v>44487</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -11429,7 +11429,7 @@
         <v>44467</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>44469</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11543,7 +11543,7 @@
         <v>44342</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>44405</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>44823</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11719,7 +11719,7 @@
         <v>44467</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11776,7 +11776,7 @@
         <v>44515</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>44449</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11895,7 +11895,7 @@
         <v>44767</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
         <v>44719</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44487</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>44356</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>44776.43607638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -12190,7 +12190,7 @@
         <v>44253</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -12247,7 +12247,7 @@
         <v>44692.5827662037</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -12304,7 +12304,7 @@
         <v>44882</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -12366,7 +12366,7 @@
         <v>44803</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -12423,7 +12423,7 @@
         <v>44588</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         <v>44446.44587962963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12537,7 +12537,7 @@
         <v>44743.39017361111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12594,7 +12594,7 @@
         <v>44277.45946759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12651,7 +12651,7 @@
         <v>44308.73248842593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12713,7 +12713,7 @@
         <v>44574</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12770,7 +12770,7 @@
         <v>44571</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12827,7 +12827,7 @@
         <v>44393</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44405.3794212963</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44841</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44537</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44809</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44884</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44884.59502314815</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44628</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44319</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44515</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -13407,7 +13407,7 @@
         <v>44525</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44525.62849537037</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13521,7 +13521,7 @@
         <v>44627</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13578,7 +13578,7 @@
         <v>44785</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13635,7 +13635,7 @@
         <v>44643</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44720.78243055556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44595</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13811,7 +13811,7 @@
         <v>44481</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13868,7 +13868,7 @@
         <v>44743.53200231482</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
         <v>44378</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13982,7 +13982,7 @@
         <v>44309.38962962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>44497</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -14096,7 +14096,7 @@
         <v>44378</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -14153,7 +14153,7 @@
         <v>44638</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -14210,7 +14210,7 @@
         <v>44848</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -14267,7 +14267,7 @@
         <v>44382.29295138889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -14324,7 +14324,7 @@
         <v>44776.49267361111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -14381,7 +14381,7 @@
         <v>44498.63189814815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -14438,7 +14438,7 @@
         <v>44826</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14495,7 +14495,7 @@
         <v>44791</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>44498.62533564815</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14609,7 +14609,7 @@
         <v>44638</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14666,7 +14666,7 @@
         <v>44498.6764699074</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14723,7 +14723,7 @@
         <v>44371.45949074074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14785,7 +14785,7 @@
         <v>44812</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14842,7 +14842,7 @@
         <v>44796</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>44855</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14961,7 +14961,7 @@
         <v>44794.57594907407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -15018,7 +15018,7 @@
         <v>45236</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>45274.66761574074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -15137,7 +15137,7 @@
         <v>45448.46712962963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -15199,7 +15199,7 @@
         <v>44945.79784722222</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -15256,7 +15256,7 @@
         <v>45728.64946759259</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -15313,7 +15313,7 @@
         <v>45477.43600694444</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>45268.5847337963</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         <v>45435.65314814815</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15489,7 +15489,7 @@
         <v>45219</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15551,7 +15551,7 @@
         <v>45457.59011574074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15608,7 +15608,7 @@
         <v>45294</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15665,7 +15665,7 @@
         <v>44767</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>45140</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15779,7 +15779,7 @@
         <v>45089</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15841,7 +15841,7 @@
         <v>44767</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15898,7 +15898,7 @@
         <v>44897.58119212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         <v>44939</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -16017,7 +16017,7 @@
         <v>45140</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -16074,7 +16074,7 @@
         <v>45217</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -16131,7 +16131,7 @@
         <v>45217</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>45448.46574074074</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -16250,7 +16250,7 @@
         <v>45182.38091435185</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -16307,7 +16307,7 @@
         <v>45238</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -16364,7 +16364,7 @@
         <v>45225.27888888889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16421,7 +16421,7 @@
         <v>45225.27950231481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16478,7 +16478,7 @@
         <v>45704.41174768518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16535,7 +16535,7 @@
         <v>45142</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16592,7 +16592,7 @@
         <v>45302</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16649,7 +16649,7 @@
         <v>45225</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16711,7 +16711,7 @@
         <v>45623.61754629629</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16768,7 +16768,7 @@
         <v>45774.74288194445</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16825,7 +16825,7 @@
         <v>45774.74611111111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16882,7 +16882,7 @@
         <v>45275</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16939,7 +16939,7 @@
         <v>45133.94640046296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16996,7 +16996,7 @@
         <v>44768</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -17053,7 +17053,7 @@
         <v>45316.34875</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -17110,7 +17110,7 @@
         <v>45545.65766203704</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -17167,7 +17167,7 @@
         <v>44460</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -17224,7 +17224,7 @@
         <v>44498.63928240741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -17281,7 +17281,7 @@
         <v>44498.66814814815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -17338,7 +17338,7 @@
         <v>44909.47087962963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17395,7 +17395,7 @@
         <v>44909.47482638889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17452,7 +17452,7 @@
         <v>44930</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>45030.5583912037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17571,7 +17571,7 @@
         <v>44903.64769675926</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         <v>45161.37310185185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17685,7 +17685,7 @@
         <v>45309</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17742,7 +17742,7 @@
         <v>45111.58732638889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17799,7 +17799,7 @@
         <v>45729.8487037037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17856,7 +17856,7 @@
         <v>45153</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17918,7 +17918,7 @@
         <v>45160</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17975,7 +17975,7 @@
         <v>45573.49461805556</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -18032,7 +18032,7 @@
         <v>45141</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44445</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>45755.66143518518</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44420.49575231481</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45624.56611111111</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -18322,7 +18322,7 @@
         <v>45111.58931712963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18379,7 +18379,7 @@
         <v>45294.73603009259</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18436,7 +18436,7 @@
         <v>45804.66534722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18493,7 +18493,7 @@
         <v>45572.68226851852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>45491.69811342593</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18607,7 +18607,7 @@
         <v>44894</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45246</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45804.65851851852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>44945.79784722222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18840,7 +18840,7 @@
         <v>45889.68641203704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18897,7 +18897,7 @@
         <v>45812.4794212963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45463.58699074074</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -19011,7 +19011,7 @@
         <v>45888</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -19068,7 +19068,7 @@
         <v>44546.45023148148</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
         <v>45071</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -19187,7 +19187,7 @@
         <v>45678.54631944445</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -19244,7 +19244,7 @@
         <v>44424.61851851852</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -19306,7 +19306,7 @@
         <v>45735.53318287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19363,7 +19363,7 @@
         <v>45894.62824074074</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19420,7 +19420,7 @@
         <v>45750.62740740741</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19477,7 +19477,7 @@
         <v>45817.52960648148</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19534,7 +19534,7 @@
         <v>45816.80521990741</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19591,7 +19591,7 @@
         <v>45816.81532407407</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19648,7 +19648,7 @@
         <v>44442</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19705,7 +19705,7 @@
         <v>44343</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19762,7 +19762,7 @@
         <v>45818.4428125</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19819,7 +19819,7 @@
         <v>45222</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19881,7 +19881,7 @@
         <v>44683</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19938,7 +19938,7 @@
         <v>45818.4477662037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19995,7 +19995,7 @@
         <v>45274.66712962963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -20052,7 +20052,7 @@
         <v>45146</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>45819.35346064815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -20176,7 +20176,7 @@
         <v>45819.34208333334</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>44888</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>45818.45112268518</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45901.53839120371</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>45275.35924768518</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45902.42209490741</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>44487</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20585,7 +20585,7 @@
         <v>45821.4375462963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20642,7 +20642,7 @@
         <v>45316.35028935185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20699,7 +20699,7 @@
         <v>45824</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20756,7 +20756,7 @@
         <v>45905</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20813,7 +20813,7 @@
         <v>45905</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>45824.6219212963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20932,7 +20932,7 @@
         <v>45623.61640046296</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20989,7 +20989,7 @@
         <v>45623</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>45905</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -21103,7 +21103,7 @@
         <v>44949</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         <v>45456.67717592593</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -21217,7 +21217,7 @@
         <v>45824.6057175926</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21279,7 +21279,7 @@
         <v>45825.41101851852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21336,7 +21336,7 @@
         <v>45013</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21393,7 +21393,7 @@
         <v>45827</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21455,7 +21455,7 @@
         <v>45915.59864583334</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21512,7 +21512,7 @@
         <v>45827</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44558</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>45912.47329861111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21693,7 +21693,7 @@
         <v>45912.47711805555</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21755,7 +21755,7 @@
         <v>45912.4715625</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21817,7 +21817,7 @@
         <v>45917.7152662037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21874,7 +21874,7 @@
         <v>45917.72821759259</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21931,7 +21931,7 @@
         <v>44743.53112268518</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21988,7 +21988,7 @@
         <v>45230</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -22045,7 +22045,7 @@
         <v>45125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -22102,7 +22102,7 @@
         <v>45919</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -22159,7 +22159,7 @@
         <v>45610</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -22216,7 +22216,7 @@
         <v>45492</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22273,7 +22273,7 @@
         <v>44865</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>45922.85089120371</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22392,7 +22392,7 @@
         <v>45729</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22454,7 +22454,7 @@
         <v>45923.56998842592</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22511,7 +22511,7 @@
         <v>45923.5819675926</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22568,7 +22568,7 @@
         <v>45359</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22625,7 +22625,7 @@
         <v>45925.6012962963</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22682,7 +22682,7 @@
         <v>44830</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22739,7 +22739,7 @@
         <v>45208</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22796,7 +22796,7 @@
         <v>45833.6840162037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22853,7 +22853,7 @@
         <v>45833.68815972222</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22910,7 +22910,7 @@
         <v>45147</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>45925.60758101852</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>45925.51773148148</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44600</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>45202</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>45928.69971064815</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>45729</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>45021.41194444444</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>45930.40612268518</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23423,7 +23423,7 @@
         <v>45931.46402777778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23480,7 +23480,7 @@
         <v>45930.52037037037</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23537,7 +23537,7 @@
         <v>45547.66443287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45604.6397337963</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23656,7 +23656,7 @@
         <v>45281</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23718,7 +23718,7 @@
         <v>44783.43192129629</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23775,7 +23775,7 @@
         <v>45838</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23832,7 +23832,7 @@
         <v>44916</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>45932</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>45932</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -24018,7 +24018,7 @@
         <v>44929</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -24075,7 +24075,7 @@
         <v>44928.80907407407</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -24132,7 +24132,7 @@
         <v>44933</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -24189,7 +24189,7 @@
         <v>45932</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24251,7 +24251,7 @@
         <v>44965.61106481482</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24308,7 +24308,7 @@
         <v>44768</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24365,7 +24365,7 @@
         <v>44909.47282407407</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24422,7 +24422,7 @@
         <v>44862</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>44889.59107638889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45203</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45938</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>44665</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24722,7 +24722,7 @@
         <v>44860.31635416667</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         <v>45938</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45938</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>45938</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24965,7 +24965,7 @@
         <v>45938</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         <v>45938</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -25089,7 +25089,7 @@
         <v>45938</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -25151,7 +25151,7 @@
         <v>44354.65108796296</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -25208,7 +25208,7 @@
         <v>45938</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25270,7 +25270,7 @@
         <v>45938</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25332,7 +25332,7 @@
         <v>45938</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25394,7 +25394,7 @@
         <v>45938</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>45938</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25518,7 +25518,7 @@
         <v>44936</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25575,7 +25575,7 @@
         <v>45271</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>45898</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25689,7 +25689,7 @@
         <v>45842.65444444444</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25751,7 +25751,7 @@
         <v>45614</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25808,7 +25808,7 @@
         <v>45655.79679398148</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44795</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25922,7 +25922,7 @@
         <v>45941</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>44933</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -26036,7 +26036,7 @@
         <v>44942</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -26093,7 +26093,7 @@
         <v>45293</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -26150,7 +26150,7 @@
         <v>45195.4384375</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -26207,7 +26207,7 @@
         <v>45111.75905092592</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26264,7 +26264,7 @@
         <v>45555.57263888889</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26326,7 +26326,7 @@
         <v>45945</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26383,7 +26383,7 @@
         <v>45775</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26445,7 +26445,7 @@
         <v>45082.58068287037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26502,7 +26502,7 @@
         <v>45082</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26559,7 +26559,7 @@
         <v>45590.59991898148</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26616,7 +26616,7 @@
         <v>45244</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26678,7 +26678,7 @@
         <v>45121</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26735,7 +26735,7 @@
         <v>45804.67081018518</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26792,7 +26792,7 @@
         <v>45852.90648148148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26849,7 +26849,7 @@
         <v>45204.62655092592</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45852.93737268518</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45852.9413425926</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -27025,7 +27025,7 @@
         <v>45852.91939814815</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -27082,7 +27082,7 @@
         <v>44412</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45950</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -27206,7 +27206,7 @@
         <v>44936</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>44931</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45860.59876157407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27377,7 +27377,7 @@
         <v>45860.54739583333</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27434,7 +27434,7 @@
         <v>45860.56385416666</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27491,7 +27491,7 @@
         <v>45860</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27548,7 +27548,7 @@
         <v>45678.56328703704</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27605,7 +27605,7 @@
         <v>44623.6377199074</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27662,7 +27662,7 @@
         <v>45111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27724,7 +27724,7 @@
         <v>44412</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27781,7 +27781,7 @@
         <v>45952.69527777778</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>44923</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27900,7 +27900,7 @@
         <v>45489.46947916667</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27957,7 +27957,7 @@
         <v>45489</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -28014,7 +28014,7 @@
         <v>45106.46225694445</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -28071,7 +28071,7 @@
         <v>45106.46359953703</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>44369</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45957.37747685185</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45296.51877314815</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28299,7 +28299,7 @@
         <v>45069.39050925926</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28356,7 +28356,7 @@
         <v>45957.44152777778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28413,7 +28413,7 @@
         <v>45957.44295138889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28470,7 +28470,7 @@
         <v>44501</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28527,7 +28527,7 @@
         <v>45392</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45555.47070601852</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>45957.38039351852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45957.44837962963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45644.6893287037</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28817,7 +28817,7 @@
         <v>44944</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>45579.69619212963</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28931,7 +28931,7 @@
         <v>45875.37489583333</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28988,7 +28988,7 @@
         <v>45244</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -29050,7 +29050,7 @@
         <v>45261.48429398148</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
         <v>45461</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         <v>45237</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29221,7 +29221,7 @@
         <v>45140</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29278,7 +29278,7 @@
         <v>44803</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29335,7 +29335,7 @@
         <v>45965.34915509259</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29397,7 +29397,7 @@
         <v>45965.34706018519</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29459,7 +29459,7 @@
         <v>45086</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29516,7 +29516,7 @@
         <v>45965.35090277778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29578,7 +29578,7 @@
         <v>44987.5969212963</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29635,7 +29635,7 @@
         <v>44459</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29692,7 +29692,7 @@
         <v>45804.44505787037</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29749,7 +29749,7 @@
         <v>45882.39939814815</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29806,7 +29806,7 @@
         <v>44565</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29863,7 +29863,7 @@
         <v>45968.35410879629</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29920,7 +29920,7 @@
         <v>45968.41912037037</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29977,7 +29977,7 @@
         <v>44690</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>45968.37731481482</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -30091,7 +30091,7 @@
         <v>45968.48194444444</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30148,7 +30148,7 @@
         <v>44768</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30205,7 +30205,7 @@
         <v>44888</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30262,7 +30262,7 @@
         <v>45973.73924768518</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30319,7 +30319,7 @@
         <v>45973.72855324074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30376,7 +30376,7 @@
         <v>44986.52277777778</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30433,7 +30433,7 @@
         <v>45974</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30490,7 +30490,7 @@
         <v>44498.60736111111</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30547,7 +30547,7 @@
         <v>44342</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30609,7 +30609,7 @@
         <v>44509</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30671,7 +30671,7 @@
         <v>45887.71827546296</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30728,7 +30728,7 @@
         <v>44475</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30785,7 +30785,7 @@
         <v>45977.50608796296</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30847,7 +30847,7 @@
         <v>44967</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30909,7 +30909,7 @@
         <v>45177</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>45116</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -31023,7 +31023,7 @@
         <v>45146</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -31085,7 +31085,7 @@
         <v>45153.68471064815</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31147,7 +31147,7 @@
         <v>45230.59686342593</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31204,7 +31204,7 @@
         <v>45306.82501157407</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31261,7 +31261,7 @@
         <v>44862</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31318,7 +31318,7 @@
         <v>45470</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31380,7 +31380,7 @@
         <v>44308</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31442,7 +31442,7 @@
         <v>44911.41037037037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31499,7 +31499,7 @@
         <v>45986.8768287037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31556,7 +31556,7 @@
         <v>45187</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31618,7 +31618,7 @@
         <v>45448.46924768519</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31680,7 +31680,7 @@
         <v>45448.47233796296</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31742,7 +31742,7 @@
         <v>45967</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31799,7 +31799,7 @@
         <v>44930</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31861,7 +31861,7 @@
         <v>45720.62863425926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31918,7 +31918,7 @@
         <v>44994.36689814815</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31975,7 +31975,7 @@
         <v>45044</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -32032,7 +32032,7 @@
         <v>45988.60721064815</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -32094,7 +32094,7 @@
         <v>45300</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32156,7 +32156,7 @@
         <v>46030.41200231481</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32213,7 +32213,7 @@
         <v>46030.41974537037</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32270,7 +32270,7 @@
         <v>46030.43818287037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
         <v>44475.61988425926</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32384,7 +32384,7 @@
         <v>46030.53461805556</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32446,7 +32446,7 @@
         <v>46031.40233796297</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32503,7 +32503,7 @@
         <v>45989.58321759259</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32560,7 +32560,7 @@
         <v>45392.60278935185</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32622,7 +32622,7 @@
         <v>45655.82</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32679,7 +32679,7 @@
         <v>46030.41450231482</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32736,7 +32736,7 @@
         <v>45086.42326388889</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32793,7 +32793,7 @@
         <v>46030.40644675926</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32850,7 +32850,7 @@
         <v>44483.56151620371</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32907,7 +32907,7 @@
         <v>45604</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32969,7 +32969,7 @@
         <v>45755.92731481481</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -33026,7 +33026,7 @@
         <v>46030.53052083333</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -33088,7 +33088,7 @@
         <v>45993.71726851852</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33145,7 +33145,7 @@
         <v>45755.69678240741</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33202,7 +33202,7 @@
         <v>45755.70814814815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33259,7 +33259,7 @@
         <v>45117</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33316,7 +33316,7 @@
         <v>46035.73590277778</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33373,7 +33373,7 @@
         <v>46035.74182870371</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33430,7 +33430,7 @@
         <v>45374</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33487,7 +33487,7 @@
         <v>44498.60736111111</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33544,7 +33544,7 @@
         <v>45994.68326388889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33601,7 +33601,7 @@
         <v>45994.64373842593</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33658,7 +33658,7 @@
         <v>45337.5977662037</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33715,7 +33715,7 @@
         <v>45294</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33777,7 +33777,7 @@
         <v>45607.60791666667</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33834,7 +33834,7 @@
         <v>45625</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33891,7 +33891,7 @@
         <v>44993.24648148148</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33948,7 +33948,7 @@
         <v>44508.4396412037</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -34005,7 +34005,7 @@
         <v>45741</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -34062,7 +34062,7 @@
         <v>46038.73855324074</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34119,7 +34119,7 @@
         <v>45320.54717592592</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>45266.73844907407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34238,7 +34238,7 @@
         <v>45695.36659722222</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34295,7 +34295,7 @@
         <v>45231</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34352,7 +34352,7 @@
         <v>44949</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34409,7 +34409,7 @@
         <v>46038.73675925926</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34466,7 +34466,7 @@
         <v>46038.74182870371</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34523,7 +34523,7 @@
         <v>44882.57453703704</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34580,7 +34580,7 @@
         <v>44882.57643518518</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34637,7 +34637,7 @@
         <v>45996.6052662037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34699,7 +34699,7 @@
         <v>46038.74047453704</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34756,7 +34756,7 @@
         <v>45999</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34813,7 +34813,7 @@
         <v>44930</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34875,7 +34875,7 @@
         <v>45268</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34932,7 +34932,7 @@
         <v>45005.58341435185</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34989,7 +34989,7 @@
         <v>45092.70390046296</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -35046,7 +35046,7 @@
         <v>46000.63111111111</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35108,7 +35108,7 @@
         <v>44293</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35170,7 +35170,7 @@
         <v>46001.57554398148</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35227,7 +35227,7 @@
         <v>46045.65662037037</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35289,7 +35289,7 @@
         <v>46003.46635416667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35346,7 +35346,7 @@
         <v>45275</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35403,7 +35403,7 @@
         <v>45275</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35465,7 +35465,7 @@
         <v>45275</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35527,7 +35527,7 @@
         <v>46002.43575231481</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35584,7 +35584,7 @@
         <v>46002.43697916667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35641,7 +35641,7 @@
         <v>45411.46809027778</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35698,7 +35698,7 @@
         <v>46049.56158564815</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35755,7 +35755,7 @@
         <v>45327.52847222222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35812,7 +35812,7 @@
         <v>45774.75024305555</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
         <v>44658</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35926,7 +35926,7 @@
         <v>46030.50560185185</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35983,7 +35983,7 @@
         <v>45217</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36040,7 +36040,7 @@
         <v>46007.60548611111</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36097,7 +36097,7 @@
         <v>45737.31425925926</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36154,7 +36154,7 @@
         <v>45737.32219907407</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36211,7 +36211,7 @@
         <v>45774.74667824074</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36268,7 +36268,7 @@
         <v>45755.72622685185</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36325,7 +36325,7 @@
         <v>44873</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36387,7 +36387,7 @@
         <v>45096</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36449,7 +36449,7 @@
         <v>46050.70089120371</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36506,7 +36506,7 @@
         <v>45071</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36568,7 +36568,7 @@
         <v>46008.63266203704</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36625,7 +36625,7 @@
         <v>46008.46769675926</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36682,7 +36682,7 @@
         <v>45741</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36739,7 +36739,7 @@
         <v>44775.39832175926</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36796,7 +36796,7 @@
         <v>46010.35003472222</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36853,7 +36853,7 @@
         <v>45655.81140046296</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>45037.55094907407</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36972,7 +36972,7 @@
         <v>46055.32596064815</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37029,7 +37029,7 @@
         <v>45271</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37086,7 +37086,7 @@
         <v>45177</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37143,7 +37143,7 @@
         <v>44454</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37200,7 +37200,7 @@
         <v>46055.63732638889</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37257,7 +37257,7 @@
         <v>46010.34716435185</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37314,7 +37314,7 @@
         <v>45161.55373842592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45576.64189814815</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37428,7 +37428,7 @@
         <v>44958</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37485,7 +37485,7 @@
         <v>44936</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37542,7 +37542,7 @@
         <v>44638.21601851852</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37599,7 +37599,7 @@
         <v>45453</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37656,7 +37656,7 @@
         <v>45293</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37713,7 +37713,7 @@
         <v>44599.53623842593</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37770,7 +37770,7 @@
         <v>44776.48541666667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37827,7 +37827,7 @@
         <v>46057</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37884,7 +37884,7 @@
         <v>45245</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37946,7 +37946,7 @@
         <v>44970</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38008,7 +38008,7 @@
         <v>45737.31590277778</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38065,7 +38065,7 @@
         <v>45737.32273148148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38122,7 +38122,7 @@
         <v>45308</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38184,7 +38184,7 @@
         <v>45120</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38241,7 +38241,7 @@
         <v>45601.53907407408</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38303,7 +38303,7 @@
         <v>44608</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38365,7 +38365,7 @@
         <v>45475.63047453704</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38422,7 +38422,7 @@
         <v>44824</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38479,7 +38479,7 @@
         <v>45604.61431712963</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38541,7 +38541,7 @@
         <v>44865</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38603,7 +38603,7 @@
         <v>44413</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>44413</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38717,7 +38717,7 @@
         <v>45268.59717592593</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38774,7 +38774,7 @@
         <v>45106.46465277778</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38831,7 +38831,7 @@
         <v>45090</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38888,7 +38888,7 @@
         <v>44937</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>45111</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>45442.63368055555</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39064,7 +39064,7 @@
         <v>44994.48125</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39121,7 +39121,7 @@
         <v>44945.8092824074</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39178,7 +39178,7 @@
         <v>45596</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39235,7 +39235,7 @@
         <v>44431.45556712963</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39292,7 +39292,7 @@
         <v>44945</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45077</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39406,7 +39406,7 @@
         <v>45579.75803240741</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39463,7 +39463,7 @@
         <v>44469</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39520,7 +39520,7 @@
         <v>44966.52603009259</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39577,7 +39577,7 @@
         <v>45147</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39634,7 +39634,7 @@
         <v>45579.90508101852</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39691,7 +39691,7 @@
         <v>45412.70567129629</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39748,7 +39748,7 @@
         <v>45155</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39805,7 +39805,7 @@
         <v>45231.39583333334</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39862,7 +39862,7 @@
         <v>45230</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39919,7 +39919,7 @@
         <v>45244</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39981,7 +39981,7 @@
         <v>45244</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40043,7 +40043,7 @@
         <v>45231.40012731482</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40100,7 +40100,7 @@
         <v>44509</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40162,7 +40162,7 @@
         <v>45341</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40219,7 +40219,7 @@
         <v>44945</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40276,7 +40276,7 @@
         <v>44302</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40333,7 +40333,7 @@
         <v>45483</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40390,7 +40390,7 @@
         <v>45229.81049768518</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40447,7 +40447,7 @@
         <v>44740</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40504,7 +40504,7 @@
         <v>45082</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40561,7 +40561,7 @@
         <v>45655.80457175926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40618,7 +40618,7 @@
         <v>44988.70084490741</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40680,7 +40680,7 @@
         <v>45568</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40737,7 +40737,7 @@
         <v>45568</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40794,7 +40794,7 @@
         <v>44930</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40856,7 +40856,7 @@
         <v>45485.6846412037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40913,7 +40913,7 @@
         <v>45579.7454050926</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40970,7 +40970,7 @@
         <v>45748.55282407408</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41027,7 +41027,7 @@
         <v>45748.56105324074</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41084,7 +41084,7 @@
         <v>45492</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41141,7 +41141,7 @@
         <v>45230</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41198,7 +41198,7 @@
         <v>44475</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41255,7 +41255,7 @@
         <v>44986.54665509259</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41312,7 +41312,7 @@
         <v>44953</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41369,7 +41369,7 @@
         <v>45379</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41426,7 +41426,7 @@
         <v>45092.70306712963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41483,7 +41483,7 @@
         <v>45142</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41540,7 +41540,7 @@
         <v>45300.3408912037</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>44509</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41659,7 +41659,7 @@
         <v>44881</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41716,7 +41716,7 @@
         <v>45152.45078703704</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41773,7 +41773,7 @@
         <v>45209.38177083333</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41830,7 +41830,7 @@
         <v>44858</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41887,7 +41887,7 @@
         <v>45275</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41949,7 +41949,7 @@
         <v>45460.46664351852</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42006,7 +42006,7 @@
         <v>45638.66378472222</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42063,7 +42063,7 @@
         <v>45639.31511574074</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42120,7 +42120,7 @@
         <v>45639</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42177,7 +42177,7 @@
         <v>45427.39541666667</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42234,7 +42234,7 @@
         <v>44628</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42291,7 +42291,7 @@
         <v>44986.55711805556</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42348,7 +42348,7 @@
         <v>44944.35847222222</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42405,7 +42405,7 @@
         <v>45655.83563657408</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42462,7 +42462,7 @@
         <v>45655.84232638889</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42519,7 +42519,7 @@
         <v>44931</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42576,7 +42576,7 @@
         <v>45597.57811342592</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42633,7 +42633,7 @@
         <v>44950.64782407408</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42690,7 +42690,7 @@
         <v>45219</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42752,7 +42752,7 @@
         <v>44994</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42809,7 +42809,7 @@
         <v>45555.32940972222</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42866,7 +42866,7 @@
         <v>45294</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42928,7 +42928,7 @@
         <v>44350.67715277777</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42990,7 +42990,7 @@
         <v>45703.67853009259</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43047,7 +43047,7 @@
         <v>45205</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43104,7 +43104,7 @@
         <v>44641</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43166,7 +43166,7 @@
         <v>45655.81387731482</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43223,7 +43223,7 @@
         <v>45111</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>44767</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43337,7 +43337,7 @@
         <v>44909.47206018519</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43394,7 +43394,7 @@
         <v>44909.4740625</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43451,7 +43451,7 @@
         <v>45230</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43508,7 +43508,7 @@
         <v>44588</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43565,7 +43565,7 @@
         <v>45265</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43622,7 +43622,7 @@
         <v>45294.72739583333</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43679,7 +43679,7 @@
         <v>45429</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43736,7 +43736,7 @@
         <v>45299.67736111111</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43793,7 +43793,7 @@
         <v>45491.69741898148</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43850,7 +43850,7 @@
         <v>45274.94810185185</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43907,7 +43907,7 @@
         <v>45266.54534722222</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>45268.58987268519</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44021,7 +44021,7 @@
         <v>45300.34408564815</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44083,7 +44083,7 @@
         <v>45342</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44140,7 +44140,7 @@
         <v>45364</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44202,7 +44202,7 @@
         <v>45275</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44259,7 +44259,7 @@
         <v>45275</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44321,7 +44321,7 @@
         <v>45275</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44378,7 +44378,7 @@
         <v>45153.5702662037</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44440,7 +44440,7 @@
         <v>45397.42005787037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44497,7 +44497,7 @@
         <v>45404.48288194444</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44554,7 +44554,7 @@
         <v>44810</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44611,7 +44611,7 @@
         <v>45491.68972222223</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44668,7 +44668,7 @@
         <v>45491.69962962963</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44725,7 +44725,7 @@
         <v>44812</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44782,7 +44782,7 @@
         <v>44794.57074074074</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44839,7 +44839,7 @@
         <v>44643</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44896,7 +44896,7 @@
         <v>45299.66028935185</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44953,7 +44953,7 @@
         <v>45049</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45010,7 +45010,7 @@
         <v>45048.54754629629</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45067,7 +45067,7 @@
         <v>45105</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45129,7 +45129,7 @@
         <v>45774.74922453704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45186,7 +45186,7 @@
         <v>45448.4634375</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>45727.41893518518</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45305,7 +45305,7 @@
         <v>44859</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45367,7 +45367,7 @@
         <v>45712</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>45275.64769675926</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45486,7 +45486,7 @@
         <v>45671.57730324074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45543,7 +45543,7 @@
         <v>45779.39417824074</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>45779.37586805555</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45657,7 +45657,7 @@
         <v>45785</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45714,7 +45714,7 @@
         <v>45359.55474537037</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45771,7 +45771,7 @@
         <v>45342</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45828,7 +45828,7 @@
         <v>45573.50582175926</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45885,7 +45885,7 @@
         <v>45786.46930555555</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45942,7 +45942,7 @@
         <v>45664.56349537037</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45999,7 +45999,7 @@
         <v>45369.6190162037</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46056,7 +46056,7 @@
         <v>45546.64825231482</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46113,7 +46113,7 @@
         <v>45246.78474537037</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46170,7 +46170,7 @@
         <v>45483</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46227,7 +46227,7 @@
         <v>45791.37481481482</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46284,7 +46284,7 @@
         <v>45793.47493055555</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46341,7 +46341,7 @@
         <v>45593.52091435185</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46398,7 +46398,7 @@
         <v>45737.64784722222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
